--- a/minus20deg.xlsx
+++ b/minus20deg.xlsx
@@ -4589,37 +4589,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.7421479999999985</c:v>
+                  <c:v>-10.674400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.96683200000000014</c:v>
+                  <c:v>-3.589459999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.6758120000000005</c:v>
+                  <c:v>3.4954800000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.3847920000000009</c:v>
+                  <c:v>10.58042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.093772</c:v>
+                  <c:v>17.66536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-15.802752</c:v>
+                  <c:v>24.750299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19.511731999999999</c:v>
+                  <c:v>31.835239999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-23.220711999999999</c:v>
+                  <c:v>38.920180000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26.929691999999999</c:v>
+                  <c:v>46.005119999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-30.638672</c:v>
+                  <c:v>53.090059999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-34.347651999999997</c:v>
+                  <c:v>60.174999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,37 +4710,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.914209</c:v>
+                  <c:v>-2.8790939999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7618200000000002</c:v>
+                  <c:v>-2.7342199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.6094310000000003</c:v>
+                  <c:v>-2.5893459999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4570420000000004</c:v>
+                  <c:v>-2.4444719999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.3046530000000001</c:v>
+                  <c:v>-2.299598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.1522640000000002</c:v>
+                  <c:v>-2.1547239999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9998750000000003</c:v>
+                  <c:v>-2.0098499999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8474860000000002</c:v>
+                  <c:v>-1.864976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6950970000000001</c:v>
+                  <c:v>-1.7201019999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5427080000000002</c:v>
+                  <c:v>-1.5752279999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3903190000000003</c:v>
+                  <c:v>-1.4303539999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,7 +4787,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-3.535142</c:v>
+                  <c:v>-3.8767680000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4799,7 +4799,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-2.6909809999999998</c:v>
+                  <c:v>-2.7163680000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,7 +4846,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.3735559999999998</c:v>
+                  <c:v>4.0405759999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,7 +4858,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.4857830000000001</c:v>
+                  <c:v>-1.5693490000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5910,7 +5910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18:N18"/>
     </sheetView>
   </sheetViews>
@@ -5942,12 +5942,12 @@
         <v>-5</v>
       </c>
       <c r="P1">
-        <f>-3.70898*O1-15.802752</f>
-        <v>2.7421479999999985</v>
+        <f>7.08494*O1+24.7503</f>
+        <v>-10.674400000000002</v>
       </c>
       <c r="Q1">
-        <f>0.152389*O1-2.152264</f>
-        <v>-2.914209</v>
+        <f>0.144874*O1-2.154724</f>
+        <v>-2.8790939999999998</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -5976,12 +5976,12 @@
         <v>-4</v>
       </c>
       <c r="P2">
-        <f>-3.70898*O2-15.802752</f>
-        <v>-0.96683200000000014</v>
+        <f t="shared" ref="P2:P11" si="0">7.08494*O2+24.7503</f>
+        <v>-3.589459999999999</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q11" si="0">0.152389*O2-2.152264</f>
-        <v>-2.7618200000000002</v>
+        <f t="shared" ref="Q2:Q11" si="1">0.144874*O2-2.154724</f>
+        <v>-2.7342199999999997</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -6010,12 +6010,12 @@
         <v>-3</v>
       </c>
       <c r="P3">
-        <f>-3.70898*O3-15.802752</f>
-        <v>-4.6758120000000005</v>
+        <f t="shared" si="0"/>
+        <v>3.4954800000000006</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>-2.6094310000000003</v>
+        <f t="shared" si="1"/>
+        <v>-2.5893459999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -6044,12 +6044,12 @@
         <v>-2</v>
       </c>
       <c r="P4">
-        <f>-3.70898*O4-15.802752</f>
-        <v>-8.3847920000000009</v>
+        <f t="shared" si="0"/>
+        <v>10.58042</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>-2.4570420000000004</v>
+        <f t="shared" si="1"/>
+        <v>-2.4444719999999998</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -6078,12 +6078,12 @@
         <v>-1</v>
       </c>
       <c r="P5">
-        <f>-3.70898*O5-15.802752</f>
-        <v>-12.093772</v>
+        <f t="shared" si="0"/>
+        <v>17.66536</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>-2.3046530000000001</v>
+        <f t="shared" si="1"/>
+        <v>-2.299598</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -6112,12 +6112,12 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f>-3.70898*O6-15.802752</f>
-        <v>-15.802752</v>
+        <f t="shared" si="0"/>
+        <v>24.750299999999999</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>-2.1522640000000002</v>
+        <f t="shared" si="1"/>
+        <v>-2.1547239999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -6146,12 +6146,12 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <f>-3.70898*O7-15.802752</f>
-        <v>-19.511731999999999</v>
+        <f t="shared" si="0"/>
+        <v>31.835239999999999</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>-1.9998750000000003</v>
+        <f t="shared" si="1"/>
+        <v>-2.0098499999999997</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -6180,12 +6180,12 @@
         <v>2</v>
       </c>
       <c r="P8">
-        <f>-3.70898*O8-15.802752</f>
-        <v>-23.220711999999999</v>
+        <f t="shared" si="0"/>
+        <v>38.920180000000002</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>-1.8474860000000002</v>
+        <f t="shared" si="1"/>
+        <v>-1.864976</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -6214,12 +6214,12 @@
         <v>3</v>
       </c>
       <c r="P9">
-        <f>-3.70898*O9-15.802752</f>
-        <v>-26.929691999999999</v>
+        <f t="shared" si="0"/>
+        <v>46.005119999999998</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>-1.6950970000000001</v>
+        <f t="shared" si="1"/>
+        <v>-1.7201019999999998</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -6248,12 +6248,12 @@
         <v>4</v>
       </c>
       <c r="P10">
-        <f>-3.70898*O10-15.802752</f>
-        <v>-30.638672</v>
+        <f t="shared" si="0"/>
+        <v>53.090059999999994</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>-1.5427080000000002</v>
+        <f t="shared" si="1"/>
+        <v>-1.5752279999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -6282,12 +6282,12 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <f>-3.70898*O11-15.802752</f>
-        <v>-34.347651999999997</v>
+        <f t="shared" si="0"/>
+        <v>60.174999999999997</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>-1.3903190000000003</v>
+        <f t="shared" si="1"/>
+        <v>-1.4303539999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>-3.535142</v>
+        <v>-3.8767680000000002</v>
       </c>
       <c r="L17" t="s">
         <v>4</v>
@@ -6443,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>-2.6909809999999998</v>
+        <v>-2.7163680000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>4.3735559999999998</v>
+        <v>4.0405759999999997</v>
       </c>
       <c r="L18" t="s">
         <v>6</v>
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>-1.4857830000000001</v>
+        <v>-1.5693490000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
